--- a/Gantt_Diagramm.xlsx
+++ b/Gantt_Diagramm.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{615006BF-79FF-44C5-BB84-427884FC4F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="8_{615006BF-79FF-44C5-BB84-427884FC4F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA31D3F2-4B32-4016-95EE-E462742E5184}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -112,9 +112,6 @@
     <t>AUFGABE</t>
   </si>
   <si>
-    <t>Aufgabe 5</t>
-  </si>
-  <si>
     <t>Neue Zeilen ÜBER dieser einfügen</t>
   </si>
   <si>
@@ -299,6 +296,33 @@
   </si>
   <si>
     <t>kretztra, gombolju, juengejo, hertelsi</t>
+  </si>
+  <si>
+    <t>Abgabe</t>
+  </si>
+  <si>
+    <t>Seite 3</t>
+  </si>
+  <si>
+    <t>Seite 4</t>
+  </si>
+  <si>
+    <t>Seite 5</t>
+  </si>
+  <si>
+    <t>Seite 6</t>
+  </si>
+  <si>
+    <t>Seite 7</t>
+  </si>
+  <si>
+    <t>Seite 8</t>
+  </si>
+  <si>
+    <t>Seite 9</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -1327,6 +1351,9 @@
     <xf numFmtId="171" fontId="10" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1345,9 +1372,6 @@
     </xf>
     <xf numFmtId="169" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1406,37 +1430,7 @@
     <cellStyle name="zAusgeblText" xfId="3" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="Zelle überprüfen" xfId="25" builtinId="23" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="12">
     <dxf>
       <fill>
         <patternFill>
@@ -1563,15 +1557,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
-      <tableStyleElement type="totalRow" dxfId="12"/>
-      <tableStyleElement type="firstColumn" dxfId="11"/>
-      <tableStyleElement type="lastColumn" dxfId="10"/>
-      <tableStyleElement type="firstRowStripe" dxfId="9"/>
-      <tableStyleElement type="secondRowStripe" dxfId="8"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="7"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="totalRow" dxfId="9"/>
+      <tableStyleElement type="firstColumn" dxfId="8"/>
+      <tableStyleElement type="lastColumn" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="4"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1986,12 +1980,12 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL43"/>
+  <dimension ref="A1:BL47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="Q3" sqref="F3:Q3"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2013,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2027,360 +2021,360 @@
         <v>1</v>
       </c>
       <c r="B2" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="45"/>
+    </row>
+    <row r="3" spans="1:64" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="45"/>
-    </row>
-    <row r="3" spans="1:64" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="90" t="s">
+      <c r="C3" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="I3" s="45"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="84"/>
-      <c r="E4" s="89">
+        <v>35</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="85"/>
+      <c r="E4" s="90">
         <v>43945</v>
       </c>
-      <c r="F4" s="89"/>
+      <c r="F4" s="90"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="84"/>
+      <c r="C5" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="85"/>
       <c r="E5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="86">
+        <v>5</v>
+      </c>
+      <c r="I5" s="87">
         <f>I6</f>
-        <v>43941</v>
-      </c>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="86">
+        <v>43969</v>
+      </c>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="89"/>
+      <c r="P5" s="87">
         <f>P6</f>
-        <v>43948</v>
-      </c>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="86">
+        <v>43976</v>
+      </c>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="89"/>
+      <c r="W5" s="87">
         <f>W6</f>
-        <v>43955</v>
-      </c>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="86">
+        <v>43983</v>
+      </c>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="89"/>
+      <c r="AD5" s="87">
         <f>AD6</f>
-        <v>43962</v>
-      </c>
-      <c r="AE5" s="87"/>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AJ5" s="88"/>
-      <c r="AK5" s="86">
+        <v>43990</v>
+      </c>
+      <c r="AE5" s="88"/>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="89"/>
+      <c r="AK5" s="87">
         <f>AK6</f>
-        <v>43969</v>
-      </c>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="87"/>
-      <c r="AO5" s="87"/>
-      <c r="AP5" s="87"/>
-      <c r="AQ5" s="88"/>
-      <c r="AR5" s="86">
+        <v>43997</v>
+      </c>
+      <c r="AL5" s="88"/>
+      <c r="AM5" s="88"/>
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="88"/>
+      <c r="AP5" s="88"/>
+      <c r="AQ5" s="89"/>
+      <c r="AR5" s="87">
         <f>AR6</f>
-        <v>43976</v>
-      </c>
-      <c r="AS5" s="87"/>
-      <c r="AT5" s="87"/>
-      <c r="AU5" s="87"/>
-      <c r="AV5" s="87"/>
-      <c r="AW5" s="87"/>
-      <c r="AX5" s="88"/>
-      <c r="AY5" s="86">
+        <v>44004</v>
+      </c>
+      <c r="AS5" s="88"/>
+      <c r="AT5" s="88"/>
+      <c r="AU5" s="88"/>
+      <c r="AV5" s="88"/>
+      <c r="AW5" s="88"/>
+      <c r="AX5" s="89"/>
+      <c r="AY5" s="87">
         <f>AY6</f>
-        <v>43983</v>
-      </c>
-      <c r="AZ5" s="87"/>
-      <c r="BA5" s="87"/>
-      <c r="BB5" s="87"/>
-      <c r="BC5" s="87"/>
-      <c r="BD5" s="87"/>
-      <c r="BE5" s="88"/>
-      <c r="BF5" s="86">
+        <v>44011</v>
+      </c>
+      <c r="AZ5" s="88"/>
+      <c r="BA5" s="88"/>
+      <c r="BB5" s="88"/>
+      <c r="BC5" s="88"/>
+      <c r="BD5" s="88"/>
+      <c r="BE5" s="89"/>
+      <c r="BF5" s="87">
         <f>BF6</f>
-        <v>43990</v>
-      </c>
-      <c r="BG5" s="87"/>
-      <c r="BH5" s="87"/>
-      <c r="BI5" s="87"/>
-      <c r="BJ5" s="87"/>
-      <c r="BK5" s="87"/>
-      <c r="BL5" s="88"/>
+        <v>44018</v>
+      </c>
+      <c r="BG5" s="88"/>
+      <c r="BH5" s="88"/>
+      <c r="BI5" s="88"/>
+      <c r="BJ5" s="88"/>
+      <c r="BK5" s="88"/>
+      <c r="BL5" s="89"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="I6" s="80">
         <f>_xlfn.SINGLE(Projekt_Start)-WEEKDAY(_xlfn.SINGLE(Projekt_Start),1)+2+7*(_xlfn.SINGLE(Woche_anzeigen)-1)</f>
-        <v>43941</v>
+        <v>43969</v>
       </c>
       <c r="J6" s="81">
         <f>I6+1</f>
-        <v>43942</v>
+        <v>43970</v>
       </c>
       <c r="K6" s="81">
         <f t="shared" ref="K6:AX6" si="0">J6+1</f>
-        <v>43943</v>
+        <v>43971</v>
       </c>
       <c r="L6" s="81">
         <f t="shared" si="0"/>
-        <v>43944</v>
+        <v>43972</v>
       </c>
       <c r="M6" s="81">
         <f t="shared" si="0"/>
-        <v>43945</v>
+        <v>43973</v>
       </c>
       <c r="N6" s="81">
         <f t="shared" si="0"/>
-        <v>43946</v>
+        <v>43974</v>
       </c>
       <c r="O6" s="82">
         <f t="shared" si="0"/>
-        <v>43947</v>
+        <v>43975</v>
       </c>
       <c r="P6" s="80">
         <f>O6+1</f>
-        <v>43948</v>
+        <v>43976</v>
       </c>
       <c r="Q6" s="81">
         <f>P6+1</f>
-        <v>43949</v>
+        <v>43977</v>
       </c>
       <c r="R6" s="81">
         <f t="shared" si="0"/>
-        <v>43950</v>
+        <v>43978</v>
       </c>
       <c r="S6" s="81">
         <f t="shared" si="0"/>
-        <v>43951</v>
+        <v>43979</v>
       </c>
       <c r="T6" s="81">
         <f t="shared" si="0"/>
-        <v>43952</v>
+        <v>43980</v>
       </c>
       <c r="U6" s="81">
         <f t="shared" si="0"/>
-        <v>43953</v>
+        <v>43981</v>
       </c>
       <c r="V6" s="82">
         <f t="shared" si="0"/>
-        <v>43954</v>
+        <v>43982</v>
       </c>
       <c r="W6" s="80">
         <f>V6+1</f>
-        <v>43955</v>
+        <v>43983</v>
       </c>
       <c r="X6" s="81">
         <f>W6+1</f>
-        <v>43956</v>
+        <v>43984</v>
       </c>
       <c r="Y6" s="81">
         <f t="shared" si="0"/>
-        <v>43957</v>
+        <v>43985</v>
       </c>
       <c r="Z6" s="81">
         <f t="shared" si="0"/>
-        <v>43958</v>
+        <v>43986</v>
       </c>
       <c r="AA6" s="81">
         <f t="shared" si="0"/>
-        <v>43959</v>
+        <v>43987</v>
       </c>
       <c r="AB6" s="81">
         <f t="shared" si="0"/>
-        <v>43960</v>
+        <v>43988</v>
       </c>
       <c r="AC6" s="82">
         <f t="shared" si="0"/>
-        <v>43961</v>
+        <v>43989</v>
       </c>
       <c r="AD6" s="80">
         <f>AC6+1</f>
-        <v>43962</v>
+        <v>43990</v>
       </c>
       <c r="AE6" s="81">
         <f>AD6+1</f>
-        <v>43963</v>
+        <v>43991</v>
       </c>
       <c r="AF6" s="81">
         <f t="shared" si="0"/>
-        <v>43964</v>
+        <v>43992</v>
       </c>
       <c r="AG6" s="81">
         <f t="shared" si="0"/>
-        <v>43965</v>
+        <v>43993</v>
       </c>
       <c r="AH6" s="81">
         <f t="shared" si="0"/>
-        <v>43966</v>
+        <v>43994</v>
       </c>
       <c r="AI6" s="81">
         <f t="shared" si="0"/>
-        <v>43967</v>
+        <v>43995</v>
       </c>
       <c r="AJ6" s="82">
         <f t="shared" si="0"/>
-        <v>43968</v>
+        <v>43996</v>
       </c>
       <c r="AK6" s="80">
         <f>AJ6+1</f>
-        <v>43969</v>
+        <v>43997</v>
       </c>
       <c r="AL6" s="81">
         <f>AK6+1</f>
-        <v>43970</v>
+        <v>43998</v>
       </c>
       <c r="AM6" s="81">
         <f t="shared" si="0"/>
-        <v>43971</v>
+        <v>43999</v>
       </c>
       <c r="AN6" s="81">
         <f t="shared" si="0"/>
-        <v>43972</v>
+        <v>44000</v>
       </c>
       <c r="AO6" s="81">
         <f t="shared" si="0"/>
-        <v>43973</v>
+        <v>44001</v>
       </c>
       <c r="AP6" s="81">
         <f t="shared" si="0"/>
-        <v>43974</v>
+        <v>44002</v>
       </c>
       <c r="AQ6" s="82">
         <f t="shared" si="0"/>
-        <v>43975</v>
+        <v>44003</v>
       </c>
       <c r="AR6" s="80">
         <f>AQ6+1</f>
-        <v>43976</v>
+        <v>44004</v>
       </c>
       <c r="AS6" s="81">
         <f>AR6+1</f>
-        <v>43977</v>
+        <v>44005</v>
       </c>
       <c r="AT6" s="81">
         <f t="shared" si="0"/>
-        <v>43978</v>
+        <v>44006</v>
       </c>
       <c r="AU6" s="81">
         <f t="shared" si="0"/>
-        <v>43979</v>
+        <v>44007</v>
       </c>
       <c r="AV6" s="81">
         <f t="shared" si="0"/>
-        <v>43980</v>
+        <v>44008</v>
       </c>
       <c r="AW6" s="81">
         <f t="shared" si="0"/>
-        <v>43981</v>
+        <v>44009</v>
       </c>
       <c r="AX6" s="82">
         <f t="shared" si="0"/>
-        <v>43982</v>
+        <v>44010</v>
       </c>
       <c r="AY6" s="80">
         <f>AX6+1</f>
-        <v>43983</v>
+        <v>44011</v>
       </c>
       <c r="AZ6" s="81">
         <f>AY6+1</f>
-        <v>43984</v>
+        <v>44012</v>
       </c>
       <c r="BA6" s="81">
         <f t="shared" ref="BA6:BE6" si="1">AZ6+1</f>
-        <v>43985</v>
+        <v>44013</v>
       </c>
       <c r="BB6" s="81">
         <f t="shared" si="1"/>
-        <v>43986</v>
+        <v>44014</v>
       </c>
       <c r="BC6" s="81">
         <f t="shared" si="1"/>
-        <v>43987</v>
+        <v>44015</v>
       </c>
       <c r="BD6" s="81">
         <f t="shared" si="1"/>
-        <v>43988</v>
+        <v>44016</v>
       </c>
       <c r="BE6" s="82">
         <f t="shared" si="1"/>
-        <v>43989</v>
+        <v>44017</v>
       </c>
       <c r="BF6" s="80">
         <f>BE6+1</f>
-        <v>43990</v>
+        <v>44018</v>
       </c>
       <c r="BG6" s="81">
         <f>BF6+1</f>
-        <v>43991</v>
+        <v>44019</v>
       </c>
       <c r="BH6" s="81">
         <f t="shared" ref="BH6:BL6" si="2">BG6+1</f>
-        <v>43992</v>
+        <v>44020</v>
       </c>
       <c r="BI6" s="81">
         <f t="shared" si="2"/>
-        <v>43993</v>
+        <v>44021</v>
       </c>
       <c r="BJ6" s="81">
         <f t="shared" si="2"/>
-        <v>43994</v>
+        <v>44022</v>
       </c>
       <c r="BK6" s="81">
         <f t="shared" si="2"/>
-        <v>43995</v>
+        <v>44023</v>
       </c>
       <c r="BL6" s="82">
         <f t="shared" si="2"/>
-        <v>43996</v>
+        <v>44024</v>
       </c>
     </row>
     <row r="7" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2391,20 +2385,20 @@
         <v>12</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="10" t="str">
         <f t="shared" ref="I7:AN7" si="3">LEFT(TEXT(I6,"TTT"),1)</f>
@@ -2703,7 +2697,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="49"/>
       <c r="D9" s="16"/>
@@ -2711,7 +2705,7 @@
       <c r="F9" s="67"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="str">
-        <f t="shared" ref="H9:H40" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H9:H44" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I9" s="30"/>
@@ -2776,10 +2770,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="50" t="s">
         <v>43</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>44</v>
       </c>
       <c r="D10" s="17">
         <v>1</v>
@@ -2859,10 +2853,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="58" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -2940,10 +2934,10 @@
     <row r="12" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42"/>
       <c r="B12" s="58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D12" s="17">
         <v>1</v>
@@ -3021,10 +3015,10 @@
     <row r="13" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="17">
         <v>0.7</v>
@@ -3102,13 +3096,13 @@
     <row r="14" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42"/>
       <c r="B14" s="58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" s="17">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="68">
         <v>43949</v>
@@ -3184,7 +3178,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="19"/>
@@ -3255,10 +3249,10 @@
     <row r="16" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="20">
         <v>0</v>
@@ -3335,10 +3329,10 @@
     <row r="17" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42"/>
       <c r="B17" s="59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="20">
         <v>0</v>
@@ -3415,10 +3409,10 @@
     <row r="18" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42"/>
       <c r="B18" s="59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18" s="20">
         <v>0</v>
@@ -3494,10 +3488,10 @@
     <row r="19" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="42"/>
       <c r="B19" s="59" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="20">
         <v>0</v>
@@ -3573,10 +3567,10 @@
     <row r="20" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42"/>
       <c r="B20" s="59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="20">
         <v>0</v>
@@ -3649,10 +3643,10 @@
     <row r="21" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="42"/>
       <c r="B21" s="59" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="20">
         <v>0</v>
@@ -3728,10 +3722,10 @@
     <row r="22" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="42"/>
       <c r="B22" s="59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="20">
         <v>0</v>
@@ -3803,13 +3797,13 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="20">
         <v>0</v>
@@ -3882,10 +3876,10 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42"/>
       <c r="B24" s="59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="20">
         <v>0</v>
@@ -3958,10 +3952,10 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42"/>
       <c r="B25" s="59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D25" s="20">
         <v>0</v>
@@ -4034,10 +4028,10 @@
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="42"/>
       <c r="B26" s="59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="20">
         <v>0</v>
@@ -4112,7 +4106,7 @@
         <v>10</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="53"/>
       <c r="D27" s="22"/>
@@ -4183,16 +4177,20 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="42"/>
       <c r="B28" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="54"/>
       <c r="D28" s="23"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
+      <c r="E28" s="74">
+        <v>43973</v>
+      </c>
+      <c r="F28" s="74">
+        <v>43979</v>
+      </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="14" t="str">
+      <c r="H28" s="14">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
@@ -4254,16 +4252,20 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42"/>
       <c r="B29" s="60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="23"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="74"/>
+      <c r="E29" s="74">
+        <v>43973</v>
+      </c>
+      <c r="F29" s="74">
+        <v>43979</v>
+      </c>
       <c r="G29" s="14"/>
-      <c r="H29" s="14" t="str">
+      <c r="H29" s="14">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
@@ -4325,16 +4327,20 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42"/>
       <c r="B30" s="60" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="54"/>
       <c r="D30" s="23"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
+      <c r="E30" s="74">
+        <v>43980</v>
+      </c>
+      <c r="F30" s="74">
+        <v>43990</v>
+      </c>
       <c r="G30" s="14"/>
-      <c r="H30" s="14" t="str">
+      <c r="H30" s="14">
         <f t="shared" si="5"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
@@ -4396,16 +4402,20 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42"/>
       <c r="B31" s="60" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="54"/>
       <c r="D31" s="23"/>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
+      <c r="E31" s="74">
+        <v>43980</v>
+      </c>
+      <c r="F31" s="74">
+        <v>43990</v>
+      </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="14" t="str">
+      <c r="H31" s="14">
         <f t="shared" si="5"/>
-        <v/>
+        <v>11</v>
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
@@ -4467,16 +4477,20 @@
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="42"/>
       <c r="B32" s="60" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="C32" s="54"/>
       <c r="D32" s="23"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
+      <c r="E32" s="74">
+        <v>43991</v>
+      </c>
+      <c r="F32" s="74">
+        <v>43991</v>
+      </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="14" t="str">
+      <c r="H32" s="14">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
@@ -4540,7 +4554,7 @@
         <v>10</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="55"/>
       <c r="D33" s="25"/>
@@ -4610,15 +4624,21 @@
     </row>
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42"/>
-      <c r="B34" s="61"/>
+      <c r="B34" s="61" t="s">
+        <v>74</v>
+      </c>
       <c r="C34" s="56"/>
       <c r="D34" s="26"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="77"/>
+      <c r="E34" s="77">
+        <v>43994</v>
+      </c>
+      <c r="F34" s="77">
+        <v>44018</v>
+      </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="14" t="str">
+      <c r="H34" s="14">
         <f t="shared" si="5"/>
-        <v/>
+        <v>25</v>
       </c>
       <c r="I34" s="30"/>
       <c r="J34" s="30"/>
@@ -4679,15 +4699,21 @@
     </row>
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42"/>
-      <c r="B35" s="61"/>
+      <c r="B35" s="61" t="s">
+        <v>75</v>
+      </c>
       <c r="C35" s="56"/>
       <c r="D35" s="26"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
+      <c r="E35" s="77">
+        <v>43994</v>
+      </c>
+      <c r="F35" s="77">
+        <v>44018</v>
+      </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="14" t="str">
+      <c r="H35" s="14">
         <f t="shared" si="5"/>
-        <v/>
+        <v>25</v>
       </c>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
@@ -4748,16 +4774,19 @@
     </row>
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42"/>
-      <c r="B36" s="61"/>
+      <c r="B36" s="61" t="s">
+        <v>76</v>
+      </c>
       <c r="C36" s="56"/>
       <c r="D36" s="26"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="77"/>
+      <c r="E36" s="77">
+        <v>43994</v>
+      </c>
+      <c r="F36" s="77">
+        <v>44018</v>
+      </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H36" s="14"/>
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
       <c r="K36" s="30"/>
@@ -4817,16 +4846,19 @@
     </row>
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
-      <c r="B37" s="61"/>
+      <c r="B37" s="61" t="s">
+        <v>77</v>
+      </c>
       <c r="C37" s="56"/>
       <c r="D37" s="26"/>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
+      <c r="E37" s="77">
+        <v>43994</v>
+      </c>
+      <c r="F37" s="77">
+        <v>44018</v>
+      </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H37" s="14"/>
       <c r="I37" s="30"/>
       <c r="J37" s="30"/>
       <c r="K37" s="30"/>
@@ -4886,16 +4918,19 @@
     </row>
     <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42"/>
-      <c r="B38" s="61"/>
+      <c r="B38" s="61" t="s">
+        <v>78</v>
+      </c>
       <c r="C38" s="56"/>
       <c r="D38" s="26"/>
-      <c r="E38" s="77"/>
-      <c r="F38" s="77"/>
+      <c r="E38" s="77">
+        <v>43994</v>
+      </c>
+      <c r="F38" s="77">
+        <v>44018</v>
+      </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H38" s="14"/>
       <c r="I38" s="30"/>
       <c r="J38" s="30"/>
       <c r="K38" s="30"/>
@@ -4954,19 +4989,20 @@
       <c r="BL38" s="30"/>
     </row>
     <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B39" s="62"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="78"/>
-      <c r="F39" s="78"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="56"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="77">
+        <v>43994</v>
+      </c>
+      <c r="F39" s="77">
+        <v>44018</v>
+      </c>
       <c r="G39" s="14"/>
-      <c r="H39" s="14" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="H39" s="14"/>
       <c r="I39" s="30"/>
       <c r="J39" s="30"/>
       <c r="K39" s="30"/>
@@ -5025,87 +5061,381 @@
       <c r="BL39" s="30"/>
     </row>
     <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="29" t="str">
+      <c r="A40" s="42"/>
+      <c r="B40" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="56"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="77">
+        <v>43994</v>
+      </c>
+      <c r="F40" s="77">
+        <v>44018</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="30"/>
+      <c r="P40" s="30"/>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="30"/>
+      <c r="S40" s="30"/>
+      <c r="T40" s="30"/>
+      <c r="U40" s="30"/>
+      <c r="V40" s="30"/>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="30"/>
+      <c r="AA40" s="30"/>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="30"/>
+      <c r="AD40" s="30"/>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="30"/>
+      <c r="AG40" s="30"/>
+      <c r="AH40" s="30"/>
+      <c r="AI40" s="30"/>
+      <c r="AJ40" s="30"/>
+      <c r="AK40" s="30"/>
+      <c r="AL40" s="30"/>
+      <c r="AM40" s="30"/>
+      <c r="AN40" s="30"/>
+      <c r="AO40" s="30"/>
+      <c r="AP40" s="30"/>
+      <c r="AQ40" s="30"/>
+      <c r="AR40" s="30"/>
+      <c r="AS40" s="30"/>
+      <c r="AT40" s="30"/>
+      <c r="AU40" s="30"/>
+      <c r="AV40" s="30"/>
+      <c r="AW40" s="30"/>
+      <c r="AX40" s="30"/>
+      <c r="AY40" s="30"/>
+      <c r="AZ40" s="30"/>
+      <c r="BA40" s="30"/>
+      <c r="BB40" s="30"/>
+      <c r="BC40" s="30"/>
+      <c r="BD40" s="30"/>
+      <c r="BE40" s="30"/>
+      <c r="BF40" s="30"/>
+      <c r="BG40" s="30"/>
+      <c r="BH40" s="30"/>
+      <c r="BI40" s="30"/>
+      <c r="BJ40" s="30"/>
+      <c r="BK40" s="30"/>
+      <c r="BL40" s="30"/>
+    </row>
+    <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C41" s="56"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="77">
+        <v>44019</v>
+      </c>
+      <c r="F41" s="77">
+        <v>44019</v>
+      </c>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="30"/>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="30"/>
+      <c r="S41" s="30"/>
+      <c r="T41" s="30"/>
+      <c r="U41" s="30"/>
+      <c r="V41" s="30"/>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="30"/>
+      <c r="AA41" s="30"/>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="30"/>
+      <c r="AD41" s="30"/>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="30"/>
+      <c r="AG41" s="30"/>
+      <c r="AH41" s="30"/>
+      <c r="AI41" s="30"/>
+      <c r="AJ41" s="30"/>
+      <c r="AK41" s="30"/>
+      <c r="AL41" s="30"/>
+      <c r="AM41" s="30"/>
+      <c r="AN41" s="30"/>
+      <c r="AO41" s="30"/>
+      <c r="AP41" s="30"/>
+      <c r="AQ41" s="30"/>
+      <c r="AR41" s="30"/>
+      <c r="AS41" s="30"/>
+      <c r="AT41" s="30"/>
+      <c r="AU41" s="30"/>
+      <c r="AV41" s="30"/>
+      <c r="AW41" s="30"/>
+      <c r="AX41" s="30"/>
+      <c r="AY41" s="30"/>
+      <c r="AZ41" s="30"/>
+      <c r="BA41" s="30"/>
+      <c r="BB41" s="30"/>
+      <c r="BC41" s="30"/>
+      <c r="BD41" s="30"/>
+      <c r="BE41" s="30"/>
+      <c r="BF41" s="30"/>
+      <c r="BG41" s="30"/>
+      <c r="BH41" s="30"/>
+      <c r="BI41" s="30"/>
+      <c r="BJ41" s="30"/>
+      <c r="BK41" s="30"/>
+      <c r="BL41" s="30"/>
+    </row>
+    <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="42"/>
+      <c r="B42" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="26"/>
+      <c r="E42" s="77">
+        <v>44022</v>
+      </c>
+      <c r="F42" s="77">
+        <v>44022</v>
+      </c>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="30"/>
+      <c r="AH42" s="30"/>
+      <c r="AI42" s="30"/>
+      <c r="AJ42" s="30"/>
+      <c r="AK42" s="30"/>
+      <c r="AL42" s="30"/>
+      <c r="AM42" s="30"/>
+      <c r="AN42" s="30"/>
+      <c r="AO42" s="30"/>
+      <c r="AP42" s="30"/>
+      <c r="AQ42" s="30"/>
+      <c r="AR42" s="30"/>
+      <c r="AS42" s="30"/>
+      <c r="AT42" s="30"/>
+      <c r="AU42" s="30"/>
+      <c r="AV42" s="30"/>
+      <c r="AW42" s="30"/>
+      <c r="AX42" s="30"/>
+      <c r="AY42" s="30"/>
+      <c r="AZ42" s="30"/>
+      <c r="BA42" s="30"/>
+      <c r="BB42" s="30"/>
+      <c r="BC42" s="30"/>
+      <c r="BD42" s="30"/>
+      <c r="BE42" s="30"/>
+      <c r="BF42" s="30"/>
+      <c r="BG42" s="30"/>
+      <c r="BH42" s="30"/>
+      <c r="BI42" s="30"/>
+      <c r="BJ42" s="30"/>
+      <c r="BK42" s="30"/>
+      <c r="BL42" s="30"/>
+    </row>
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="62"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="78"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I40" s="32"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="32"/>
-      <c r="R40" s="32"/>
-      <c r="S40" s="32"/>
-      <c r="T40" s="32"/>
-      <c r="U40" s="32"/>
-      <c r="V40" s="32"/>
-      <c r="W40" s="32"/>
-      <c r="X40" s="32"/>
-      <c r="Y40" s="32"/>
-      <c r="Z40" s="32"/>
-      <c r="AA40" s="32"/>
-      <c r="AB40" s="32"/>
-      <c r="AC40" s="32"/>
-      <c r="AD40" s="32"/>
-      <c r="AE40" s="32"/>
-      <c r="AF40" s="32"/>
-      <c r="AG40" s="32"/>
-      <c r="AH40" s="32"/>
-      <c r="AI40" s="32"/>
-      <c r="AJ40" s="32"/>
-      <c r="AK40" s="32"/>
-      <c r="AL40" s="32"/>
-      <c r="AM40" s="32"/>
-      <c r="AN40" s="32"/>
-      <c r="AO40" s="32"/>
-      <c r="AP40" s="32"/>
-      <c r="AQ40" s="32"/>
-      <c r="AR40" s="32"/>
-      <c r="AS40" s="32"/>
-      <c r="AT40" s="32"/>
-      <c r="AU40" s="32"/>
-      <c r="AV40" s="32"/>
-      <c r="AW40" s="32"/>
-      <c r="AX40" s="32"/>
-      <c r="AY40" s="32"/>
-      <c r="AZ40" s="32"/>
-      <c r="BA40" s="32"/>
-      <c r="BB40" s="32"/>
-      <c r="BC40" s="32"/>
-      <c r="BD40" s="32"/>
-      <c r="BE40" s="32"/>
-      <c r="BF40" s="32"/>
-      <c r="BG40" s="32"/>
-      <c r="BH40" s="32"/>
-      <c r="BI40" s="32"/>
-      <c r="BJ40" s="32"/>
-      <c r="BK40" s="32"/>
-      <c r="BL40" s="32"/>
-    </row>
-    <row r="41" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="11"/>
-      <c r="F42" s="44"/>
-    </row>
-    <row r="43" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C43" s="12"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="30"/>
+      <c r="AF43" s="30"/>
+      <c r="AG43" s="30"/>
+      <c r="AH43" s="30"/>
+      <c r="AI43" s="30"/>
+      <c r="AJ43" s="30"/>
+      <c r="AK43" s="30"/>
+      <c r="AL43" s="30"/>
+      <c r="AM43" s="30"/>
+      <c r="AN43" s="30"/>
+      <c r="AO43" s="30"/>
+      <c r="AP43" s="30"/>
+      <c r="AQ43" s="30"/>
+      <c r="AR43" s="30"/>
+      <c r="AS43" s="30"/>
+      <c r="AT43" s="30"/>
+      <c r="AU43" s="30"/>
+      <c r="AV43" s="30"/>
+      <c r="AW43" s="30"/>
+      <c r="AX43" s="30"/>
+      <c r="AY43" s="30"/>
+      <c r="AZ43" s="30"/>
+      <c r="BA43" s="30"/>
+      <c r="BB43" s="30"/>
+      <c r="BC43" s="30"/>
+      <c r="BD43" s="30"/>
+      <c r="BE43" s="30"/>
+      <c r="BF43" s="30"/>
+      <c r="BG43" s="30"/>
+      <c r="BH43" s="30"/>
+      <c r="BI43" s="30"/>
+      <c r="BJ43" s="30"/>
+      <c r="BK43" s="30"/>
+      <c r="BL43" s="30"/>
+    </row>
+    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="65"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="Q44" s="32"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+      <c r="Z44" s="32"/>
+      <c r="AA44" s="32"/>
+      <c r="AB44" s="32"/>
+      <c r="AC44" s="32"/>
+      <c r="AD44" s="32"/>
+      <c r="AE44" s="32"/>
+      <c r="AF44" s="32"/>
+      <c r="AG44" s="32"/>
+      <c r="AH44" s="32"/>
+      <c r="AI44" s="32"/>
+      <c r="AJ44" s="32"/>
+      <c r="AK44" s="32"/>
+      <c r="AL44" s="32"/>
+      <c r="AM44" s="32"/>
+      <c r="AN44" s="32"/>
+      <c r="AO44" s="32"/>
+      <c r="AP44" s="32"/>
+      <c r="AQ44" s="32"/>
+      <c r="AR44" s="32"/>
+      <c r="AS44" s="32"/>
+      <c r="AT44" s="32"/>
+      <c r="AU44" s="32"/>
+      <c r="AV44" s="32"/>
+      <c r="AW44" s="32"/>
+      <c r="AX44" s="32"/>
+      <c r="AY44" s="32"/>
+      <c r="AZ44" s="32"/>
+      <c r="BA44" s="32"/>
+      <c r="BB44" s="32"/>
+      <c r="BC44" s="32"/>
+      <c r="BD44" s="32"/>
+      <c r="BE44" s="32"/>
+      <c r="BF44" s="32"/>
+      <c r="BG44" s="32"/>
+      <c r="BH44" s="32"/>
+      <c r="BI44" s="32"/>
+      <c r="BJ44" s="32"/>
+      <c r="BK44" s="32"/>
+      <c r="BL44" s="32"/>
+    </row>
+    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="11"/>
+      <c r="F46" s="44"/>
+    </row>
+    <row r="47" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5122,7 +5452,7 @@
     <mergeCell ref="AK5:AQ5"/>
     <mergeCell ref="AR5:AX5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8:D40">
+  <conditionalFormatting sqref="D8:D44">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5136,16 +5466,16 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BL40">
-    <cfRule type="expression" dxfId="5" priority="33">
+  <conditionalFormatting sqref="I6:BL44">
+    <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL40">
-    <cfRule type="expression" dxfId="4" priority="27">
+  <conditionalFormatting sqref="I8:BL44">
+    <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$6,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$6)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$6,task_start&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5156,7 +5486,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
@@ -5176,7 +5506,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D8:D40</xm:sqref>
+          <xm:sqref>D8:D44</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5202,79 +5532,79 @@
     <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:2" s="36" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="35"/>
     </row>
     <row r="3" spans="1:2" s="40" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="41"/>
     </row>
     <row r="4" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A4" s="38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="78" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="34" customFormat="1" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="63" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="38" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="75" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="34" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A11" s="38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A12" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" s="34" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" s="37" customFormat="1" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A14" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="91.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="90" x14ac:dyDescent="0.2">
       <c r="A16" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Gantt_Diagramm.xlsx
+++ b/Gantt_Diagramm.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="74" documentId="8_{615006BF-79FF-44C5-BB84-427884FC4F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CA31D3F2-4B32-4016-95EE-E462742E5184}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="8_{615006BF-79FF-44C5-BB84-427884FC4F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{41666E42-AB05-48DB-9987-05236306662C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Erstellen Sie auf diesem Arbeitsblatt einen Projektplan.
 Geben Sie den Titel dieses Projekts in Zelle B1 ein. 
@@ -244,12 +244,6 @@
     <t>Filmübersicht</t>
   </si>
   <si>
-    <t>Login</t>
-  </si>
-  <si>
-    <t>Registrieren</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -323,6 +317,9 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>Impressum</t>
   </si>
 </sst>
 </file>
@@ -1354,6 +1351,18 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1361,18 +1370,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="8" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20 % - Akzent1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1980,12 +1977,12 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL47"/>
+  <dimension ref="A1:BL46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="7" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6:G6"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2007,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2021,19 +2018,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="48" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I2" s="45"/>
     </row>
     <row r="3" spans="1:64" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="83" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I3" s="45"/>
     </row>
@@ -2041,117 +2038,117 @@
       <c r="A4" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="C4" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="90">
+      <c r="D4" s="89"/>
+      <c r="E4" s="87">
         <v>43945</v>
       </c>
-      <c r="F4" s="90"/>
+      <c r="F4" s="87"/>
     </row>
     <row r="5" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="85"/>
+      <c r="D5" s="89"/>
       <c r="E5" s="7">
         <v>5</v>
       </c>
-      <c r="I5" s="87">
+      <c r="I5" s="84">
         <f>I6</f>
         <v>43969</v>
       </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="89"/>
-      <c r="P5" s="87">
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="84">
         <f>P6</f>
         <v>43976</v>
       </c>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="89"/>
-      <c r="W5" s="87">
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="84">
         <f>W6</f>
         <v>43983</v>
       </c>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="89"/>
-      <c r="AD5" s="87">
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85"/>
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="84">
         <f>AD6</f>
         <v>43990</v>
       </c>
-      <c r="AE5" s="88"/>
-      <c r="AF5" s="88"/>
-      <c r="AG5" s="88"/>
-      <c r="AH5" s="88"/>
-      <c r="AI5" s="88"/>
-      <c r="AJ5" s="89"/>
-      <c r="AK5" s="87">
+      <c r="AE5" s="85"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="84">
         <f>AK6</f>
         <v>43997</v>
       </c>
-      <c r="AL5" s="88"/>
-      <c r="AM5" s="88"/>
-      <c r="AN5" s="88"/>
-      <c r="AO5" s="88"/>
-      <c r="AP5" s="88"/>
-      <c r="AQ5" s="89"/>
-      <c r="AR5" s="87">
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="85"/>
+      <c r="AN5" s="85"/>
+      <c r="AO5" s="85"/>
+      <c r="AP5" s="85"/>
+      <c r="AQ5" s="86"/>
+      <c r="AR5" s="84">
         <f>AR6</f>
         <v>44004</v>
       </c>
-      <c r="AS5" s="88"/>
-      <c r="AT5" s="88"/>
-      <c r="AU5" s="88"/>
-      <c r="AV5" s="88"/>
-      <c r="AW5" s="88"/>
-      <c r="AX5" s="89"/>
-      <c r="AY5" s="87">
+      <c r="AS5" s="85"/>
+      <c r="AT5" s="85"/>
+      <c r="AU5" s="85"/>
+      <c r="AV5" s="85"/>
+      <c r="AW5" s="85"/>
+      <c r="AX5" s="86"/>
+      <c r="AY5" s="84">
         <f>AY6</f>
         <v>44011</v>
       </c>
-      <c r="AZ5" s="88"/>
-      <c r="BA5" s="88"/>
-      <c r="BB5" s="88"/>
-      <c r="BC5" s="88"/>
-      <c r="BD5" s="88"/>
-      <c r="BE5" s="89"/>
-      <c r="BF5" s="87">
+      <c r="AZ5" s="85"/>
+      <c r="BA5" s="85"/>
+      <c r="BB5" s="85"/>
+      <c r="BC5" s="85"/>
+      <c r="BD5" s="85"/>
+      <c r="BE5" s="86"/>
+      <c r="BF5" s="84">
         <f>BF6</f>
         <v>44018</v>
       </c>
-      <c r="BG5" s="88"/>
-      <c r="BH5" s="88"/>
-      <c r="BI5" s="88"/>
-      <c r="BJ5" s="88"/>
-      <c r="BK5" s="88"/>
-      <c r="BL5" s="89"/>
+      <c r="BG5" s="85"/>
+      <c r="BH5" s="85"/>
+      <c r="BI5" s="85"/>
+      <c r="BJ5" s="85"/>
+      <c r="BK5" s="85"/>
+      <c r="BL5" s="86"/>
     </row>
     <row r="6" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
+      <c r="B6" s="90"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
       <c r="I6" s="80">
         <f>_xlfn.SINGLE(Projekt_Start)-WEEKDAY(_xlfn.SINGLE(Projekt_Start),1)+2+7*(_xlfn.SINGLE(Woche_anzeigen)-1)</f>
         <v>43969</v>
@@ -2705,7 +2702,7 @@
       <c r="F9" s="67"/>
       <c r="G9" s="14"/>
       <c r="H9" s="14" t="str">
-        <f t="shared" ref="H9:H44" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H9:H43" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I9" s="30"/>
@@ -3412,7 +3409,7 @@
         <v>50</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="20">
         <v>0</v>
@@ -3491,7 +3488,7 @@
         <v>51</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D19" s="20">
         <v>0</v>
@@ -3570,7 +3567,7 @@
         <v>53</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D20" s="20">
         <v>0</v>
@@ -3646,7 +3643,7 @@
         <v>52</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D21" s="20">
         <v>0</v>
@@ -3725,7 +3722,7 @@
         <v>54</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D22" s="20">
         <v>0</v>
@@ -3797,13 +3794,13 @@
     </row>
     <row r="23" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="59" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D23" s="20">
         <v>0</v>
@@ -3876,10 +3873,10 @@
     <row r="24" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42"/>
       <c r="B24" s="59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D24" s="20">
         <v>0</v>
@@ -3952,19 +3949,19 @@
     <row r="25" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42"/>
       <c r="B25" s="59" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D25" s="20">
         <v>0</v>
       </c>
       <c r="E25" s="71">
-        <v>43959</v>
+        <v>43970</v>
       </c>
       <c r="F25" s="71">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -4026,24 +4023,21 @@
       <c r="BL25" s="30"/>
     </row>
     <row r="26" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42"/>
-      <c r="B26" s="59" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="20">
-        <v>0</v>
-      </c>
-      <c r="E26" s="71">
-        <v>43970</v>
-      </c>
-      <c r="F26" s="71">
-        <v>43970</v>
-      </c>
+      <c r="A26" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="72"/>
+      <c r="F26" s="73"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="H26" s="14" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
       <c r="K26" s="30"/>
@@ -4102,20 +4096,22 @@
       <c r="BL26" s="30"/>
     </row>
     <row r="27" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="73"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="54"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="74">
+        <v>43973</v>
+      </c>
+      <c r="F27" s="74">
+        <v>43979</v>
+      </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="14" t="str">
+      <c r="H27" s="14">
         <f t="shared" si="5"/>
-        <v/>
+        <v>7</v>
       </c>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
@@ -4177,7 +4173,7 @@
     <row r="28" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="42"/>
       <c r="B28" s="60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" s="54"/>
       <c r="D28" s="23"/>
@@ -4252,20 +4248,20 @@
     <row r="29" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42"/>
       <c r="B29" s="60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="23"/>
       <c r="E29" s="74">
-        <v>43973</v>
+        <v>43980</v>
       </c>
       <c r="F29" s="74">
-        <v>43979</v>
+        <v>43990</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14">
         <f t="shared" si="5"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
@@ -4327,7 +4323,7 @@
     <row r="30" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="42"/>
       <c r="B30" s="60" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="54"/>
       <c r="D30" s="23"/>
@@ -4402,20 +4398,20 @@
     <row r="31" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="42"/>
       <c r="B31" s="60" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C31" s="54"/>
       <c r="D31" s="23"/>
       <c r="E31" s="74">
-        <v>43980</v>
+        <v>43991</v>
       </c>
       <c r="F31" s="74">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
@@ -4475,22 +4471,20 @@
       <c r="BL31" s="30"/>
     </row>
     <row r="32" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42"/>
-      <c r="B32" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" s="54"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="74">
-        <v>43991</v>
-      </c>
-      <c r="F32" s="74">
-        <v>43991</v>
-      </c>
+      <c r="A32" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="55"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="76"/>
       <c r="G32" s="14"/>
-      <c r="H32" s="14">
+      <c r="H32" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I32" s="30"/>
       <c r="J32" s="30"/>
@@ -4550,20 +4544,22 @@
       <c r="BL32" s="30"/>
     </row>
     <row r="33" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="75"/>
-      <c r="F33" s="76"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="77">
+        <v>43994</v>
+      </c>
+      <c r="F33" s="77">
+        <v>44018</v>
+      </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="14" t="str">
+      <c r="H33" s="14">
         <f t="shared" si="5"/>
-        <v/>
+        <v>25</v>
       </c>
       <c r="I33" s="30"/>
       <c r="J33" s="30"/>
@@ -4625,7 +4621,7 @@
     <row r="34" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="42"/>
       <c r="B34" s="61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="56"/>
       <c r="D34" s="26"/>
@@ -4700,7 +4696,7 @@
     <row r="35" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="42"/>
       <c r="B35" s="61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="56"/>
       <c r="D35" s="26"/>
@@ -4711,10 +4707,7 @@
         <v>44018</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="14">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
+      <c r="H35" s="14"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
       <c r="K35" s="30"/>
@@ -4775,7 +4768,7 @@
     <row r="36" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42"/>
       <c r="B36" s="61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="56"/>
       <c r="D36" s="26"/>
@@ -4847,7 +4840,7 @@
     <row r="37" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
       <c r="B37" s="61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="56"/>
       <c r="D37" s="26"/>
@@ -4919,7 +4912,7 @@
     <row r="38" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="42"/>
       <c r="B38" s="61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="56"/>
       <c r="D38" s="26"/>
@@ -4991,7 +4984,7 @@
     <row r="39" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="42"/>
       <c r="B39" s="61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C39" s="56"/>
       <c r="D39" s="26"/>
@@ -5061,17 +5054,19 @@
       <c r="BL39" s="30"/>
     </row>
     <row r="40" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42"/>
+      <c r="A40" s="42" t="s">
+        <v>79</v>
+      </c>
       <c r="B40" s="61" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="C40" s="56"/>
       <c r="D40" s="26"/>
       <c r="E40" s="77">
-        <v>43994</v>
+        <v>44019</v>
       </c>
       <c r="F40" s="77">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
@@ -5133,22 +5128,25 @@
       <c r="BL40" s="30"/>
     </row>
     <row r="41" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
-        <v>81</v>
-      </c>
+      <c r="A41" s="42"/>
       <c r="B41" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" s="56"/>
+        <v>71</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>43</v>
+      </c>
       <c r="D41" s="26"/>
       <c r="E41" s="77">
-        <v>44019</v>
+        <v>44022</v>
       </c>
       <c r="F41" s="77">
-        <v>44019</v>
+        <v>44022</v>
       </c>
       <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
+      <c r="H41" s="14">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="I41" s="30"/>
       <c r="J41" s="30"/>
       <c r="K41" s="30"/>
@@ -5207,24 +5205,18 @@
       <c r="BL41" s="30"/>
     </row>
     <row r="42" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42"/>
-      <c r="B42" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" s="56" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="77">
-        <v>44022</v>
-      </c>
-      <c r="F42" s="77">
-        <v>44022</v>
-      </c>
+      <c r="A42" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B42" s="62"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="14">
+      <c r="H42" s="14" t="str">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="I42" s="30"/>
       <c r="J42" s="30"/>
@@ -5284,161 +5276,95 @@
       <c r="BL42" s="30"/>
     </row>
     <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="78"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14" t="str">
+      <c r="A43" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="65"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="30"/>
-      <c r="AB43" s="30"/>
-      <c r="AC43" s="30"/>
-      <c r="AD43" s="30"/>
-      <c r="AE43" s="30"/>
-      <c r="AF43" s="30"/>
-      <c r="AG43" s="30"/>
-      <c r="AH43" s="30"/>
-      <c r="AI43" s="30"/>
-      <c r="AJ43" s="30"/>
-      <c r="AK43" s="30"/>
-      <c r="AL43" s="30"/>
-      <c r="AM43" s="30"/>
-      <c r="AN43" s="30"/>
-      <c r="AO43" s="30"/>
-      <c r="AP43" s="30"/>
-      <c r="AQ43" s="30"/>
-      <c r="AR43" s="30"/>
-      <c r="AS43" s="30"/>
-      <c r="AT43" s="30"/>
-      <c r="AU43" s="30"/>
-      <c r="AV43" s="30"/>
-      <c r="AW43" s="30"/>
-      <c r="AX43" s="30"/>
-      <c r="AY43" s="30"/>
-      <c r="AZ43" s="30"/>
-      <c r="BA43" s="30"/>
-      <c r="BB43" s="30"/>
-      <c r="BC43" s="30"/>
-      <c r="BD43" s="30"/>
-      <c r="BE43" s="30"/>
-      <c r="BF43" s="30"/>
-      <c r="BG43" s="30"/>
-      <c r="BH43" s="30"/>
-      <c r="BI43" s="30"/>
-      <c r="BJ43" s="30"/>
-      <c r="BK43" s="30"/>
-      <c r="BL43" s="30"/>
-    </row>
-    <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="65"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="79"/>
-      <c r="G44" s="29"/>
-      <c r="H44" s="29" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="I44" s="32"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="32"/>
-      <c r="S44" s="32"/>
-      <c r="T44" s="32"/>
-      <c r="U44" s="32"/>
-      <c r="V44" s="32"/>
-      <c r="W44" s="32"/>
-      <c r="X44" s="32"/>
-      <c r="Y44" s="32"/>
-      <c r="Z44" s="32"/>
-      <c r="AA44" s="32"/>
-      <c r="AB44" s="32"/>
-      <c r="AC44" s="32"/>
-      <c r="AD44" s="32"/>
-      <c r="AE44" s="32"/>
-      <c r="AF44" s="32"/>
-      <c r="AG44" s="32"/>
-      <c r="AH44" s="32"/>
-      <c r="AI44" s="32"/>
-      <c r="AJ44" s="32"/>
-      <c r="AK44" s="32"/>
-      <c r="AL44" s="32"/>
-      <c r="AM44" s="32"/>
-      <c r="AN44" s="32"/>
-      <c r="AO44" s="32"/>
-      <c r="AP44" s="32"/>
-      <c r="AQ44" s="32"/>
-      <c r="AR44" s="32"/>
-      <c r="AS44" s="32"/>
-      <c r="AT44" s="32"/>
-      <c r="AU44" s="32"/>
-      <c r="AV44" s="32"/>
-      <c r="AW44" s="32"/>
-      <c r="AX44" s="32"/>
-      <c r="AY44" s="32"/>
-      <c r="AZ44" s="32"/>
-      <c r="BA44" s="32"/>
-      <c r="BB44" s="32"/>
-      <c r="BC44" s="32"/>
-      <c r="BD44" s="32"/>
-      <c r="BE44" s="32"/>
-      <c r="BF44" s="32"/>
-      <c r="BG44" s="32"/>
-      <c r="BH44" s="32"/>
-      <c r="BI44" s="32"/>
-      <c r="BJ44" s="32"/>
-      <c r="BK44" s="32"/>
-      <c r="BL44" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="Q43" s="32"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+      <c r="Z43" s="32"/>
+      <c r="AA43" s="32"/>
+      <c r="AB43" s="32"/>
+      <c r="AC43" s="32"/>
+      <c r="AD43" s="32"/>
+      <c r="AE43" s="32"/>
+      <c r="AF43" s="32"/>
+      <c r="AG43" s="32"/>
+      <c r="AH43" s="32"/>
+      <c r="AI43" s="32"/>
+      <c r="AJ43" s="32"/>
+      <c r="AK43" s="32"/>
+      <c r="AL43" s="32"/>
+      <c r="AM43" s="32"/>
+      <c r="AN43" s="32"/>
+      <c r="AO43" s="32"/>
+      <c r="AP43" s="32"/>
+      <c r="AQ43" s="32"/>
+      <c r="AR43" s="32"/>
+      <c r="AS43" s="32"/>
+      <c r="AT43" s="32"/>
+      <c r="AU43" s="32"/>
+      <c r="AV43" s="32"/>
+      <c r="AW43" s="32"/>
+      <c r="AX43" s="32"/>
+      <c r="AY43" s="32"/>
+      <c r="AZ43" s="32"/>
+      <c r="BA43" s="32"/>
+      <c r="BB43" s="32"/>
+      <c r="BC43" s="32"/>
+      <c r="BD43" s="32"/>
+      <c r="BE43" s="32"/>
+      <c r="BF43" s="32"/>
+      <c r="BG43" s="32"/>
+      <c r="BH43" s="32"/>
+      <c r="BI43" s="32"/>
+      <c r="BJ43" s="32"/>
+      <c r="BK43" s="32"/>
+      <c r="BL43" s="32"/>
+    </row>
+    <row r="44" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="6"/>
     </row>
     <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G45" s="6"/>
+      <c r="C45" s="11"/>
+      <c r="F45" s="44"/>
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="11"/>
-      <c r="F46" s="44"/>
-    </row>
-    <row r="47" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="12"/>
+      <c r="C46" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="AK5:AQ5"/>
+    <mergeCell ref="AR5:AX5"/>
     <mergeCell ref="AY5:BE5"/>
     <mergeCell ref="BF5:BL5"/>
     <mergeCell ref="E4:F4"/>
@@ -5446,13 +5372,8 @@
     <mergeCell ref="P5:V5"/>
     <mergeCell ref="W5:AC5"/>
     <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="AK5:AQ5"/>
-    <mergeCell ref="AR5:AX5"/>
   </mergeCells>
-  <conditionalFormatting sqref="D8:D44">
+  <conditionalFormatting sqref="D8:D43">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5466,12 +5387,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I6:BL44">
+  <conditionalFormatting sqref="I6:BL43">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$6,TODAY()&lt;J$6)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I8:BL44">
+  <conditionalFormatting sqref="I8:BL43">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$6,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$6)</formula>
     </cfRule>
@@ -5506,7 +5427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D8:D44</xm:sqref>
+          <xm:sqref>D8:D43</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5789,18 +5710,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5822,18 +5743,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B14351C2-D9E2-4F47-9F43-6033957832EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B37FDB56-EBD2-42D1-98B3-8BA8E781B6D9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B14351C2-D9E2-4F47-9F43-6033957832EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>